--- a/medicine/Sexualité et sexologie/Affaire_Raymond-Marie_Lavoie/Affaire_Raymond-Marie_Lavoie.xlsx
+++ b/medicine/Sexualité et sexologie/Affaire_Raymond-Marie_Lavoie/Affaire_Raymond-Marie_Lavoie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'affaire Raymond-Marie Lavoie est une affaire judiciaire mettant en cause le prêtre Raymond-Marie Lavoie, membre de la Congrégation du Très Saint Rédempteur. Il a agressé sexuellement 13 enfants au sein ancien Séminaire Saint-Alphonse de Sainte-Anne-de-Beaupré au Canada. Il est condamné à cinq ans de prison en novembre 2012.
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raymond-Marie Lavoie est un prêtre membre de la Congrégation du Très Saint Rédempteur. Il a enseigné au sein du Séminaire Saint-Alphonse, école privée dirigée par les Rédemptoristes à Sainte-Anne-de-Beaupré. La nouvelle dénomination de l'institution est collège Saint-Alphonse, elle est implantée à Saint-Tite-des-Caps[1].
-En décembre 2009, Raymond-Marie Lavoie est arrêté pour des agressions sexuelles sur quatre enfants. À la suite de ces premières accusations, d'autres plaintes se greffent à l'encontre du prêtre Lavoie mais aussi pour Jean-Claude Bergeron[2].
-En octobre 2012, il est jugé pour des agressions sexuelles commises de 1973 à 1985, alors qu'il est surveillant de dortoir de l'ancien Séminaire Saint-Alphonse de Sainte-Anne-de-Beaupré, il y agresse sexuellement 13 garçons âgés de 12 à 16 ans. Il plaide coupable pour ces crimes. Raymond-Marie Lavoie est condamné à 3 ans de prison alors que la Couronne réclamait 8 ans[3].
-En novembre 2012, Raymond-Marie Lavoie est condamné à 5 ans de prison dans le procès en appel. En mars 2014, une semi-liberté est décidée pour le prêtre pédophile. Il réside alors dans une maison de transition spécialisée dans la délinquance sexuelle[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond-Marie Lavoie est un prêtre membre de la Congrégation du Très Saint Rédempteur. Il a enseigné au sein du Séminaire Saint-Alphonse, école privée dirigée par les Rédemptoristes à Sainte-Anne-de-Beaupré. La nouvelle dénomination de l'institution est collège Saint-Alphonse, elle est implantée à Saint-Tite-des-Caps.
+En décembre 2009, Raymond-Marie Lavoie est arrêté pour des agressions sexuelles sur quatre enfants. À la suite de ces premières accusations, d'autres plaintes se greffent à l'encontre du prêtre Lavoie mais aussi pour Jean-Claude Bergeron.
+En octobre 2012, il est jugé pour des agressions sexuelles commises de 1973 à 1985, alors qu'il est surveillant de dortoir de l'ancien Séminaire Saint-Alphonse de Sainte-Anne-de-Beaupré, il y agresse sexuellement 13 garçons âgés de 12 à 16 ans. Il plaide coupable pour ces crimes. Raymond-Marie Lavoie est condamné à 3 ans de prison alors que la Couronne réclamait 8 ans.
+En novembre 2012, Raymond-Marie Lavoie est condamné à 5 ans de prison dans le procès en appel. En mars 2014, une semi-liberté est décidée pour le prêtre pédophile. Il réside alors dans une maison de transition spécialisée dans la délinquance sexuelle.
 </t>
         </is>
       </c>
